--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4430.483654180827</v>
+        <v>881666.2471819848</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4430.483654180827</v>
+        <v>881666.2471819848</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95527.0771092654</v>
+        <v>6601588.843216287</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95527.0771092654</v>
+        <v>6601588.843216287</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343071876.272869</v>
+        <v>49282126.97609837</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15653.52515030642</v>
+        <v>1308709.200827068</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29217.46340219995</v>
+        <v>2256829.875826742</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42841.62134072513</v>
+        <v>3204950.550826415</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56504.77091893124</v>
+        <v>4152232.184929107</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70167.92049713733</v>
+        <v>5099513.819031797</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83831.07007534339</v>
+        <v>6046795.453134487</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>97448.06168439577</v>
+        <v>7007639.311696052</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>111046.1653273994</v>
+        <v>7964724.465013906</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>124703.4500816248</v>
+        <v>8906899.164487008</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>138366.8236761176</v>
+        <v>9854225.37783074</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>152029.9732543237</v>
+        <v>10801507.01193343</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>165693.1228325298</v>
+        <v>11748788.64603611</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>179356.272410736</v>
+        <v>12696070.2801388</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>193030.1876901459</v>
+        <v>13641554.45412363</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>206708.0700391343</v>
+        <v>14575542.36062253</v>
       </c>
     </row>
   </sheetData>
